--- a/data/trans_bre/P1412-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9109023843356427</v>
+        <v>-0.8126022556342533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.686455048863464</v>
+        <v>-1.760524129237011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.228071865376774</v>
+        <v>-2.250146572043947</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4624084754005829</v>
+        <v>-0.4236240367967239</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6794591207663038</v>
+        <v>-0.6649298764024603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6835029061005449</v>
+        <v>-0.6977647728303996</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.249330553272904</v>
+        <v>1.204215606835932</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6697240756951863</v>
+        <v>0.714051755385954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3382069846259138</v>
+        <v>0.3746330010602865</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.462976714912383</v>
+        <v>1.379618464424635</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6101597607115272</v>
+        <v>0.7561763569349226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2864733997859178</v>
+        <v>0.3134707696313034</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.1918138618609279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.2308368396418843</v>
+        <v>-0.2308368396418844</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.7503370417393911</v>
@@ -709,7 +709,7 @@
         <v>-0.4573649843220418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3667528226007013</v>
+        <v>-0.3667528226007015</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.855763715280723</v>
+        <v>-0.8162950025166353</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5598741020823134</v>
+        <v>-0.5772613444116438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6626969500700161</v>
+        <v>-0.626863245301593</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8871268084541462</v>
+        <v>-0.8986989417521687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7326538464292324</v>
+        <v>-0.7162799497115165</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.04044468916878494</v>
+        <v>-0.02945646947256359</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1639681801491968</v>
+        <v>0.1422804307095424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1170862655760806</v>
+        <v>0.09825144970774174</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3489150154817608</v>
+        <v>0.4902414732077231</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.233858813912401</v>
+        <v>0.9728793072208235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3587390177792572</v>
+        <v>0.3109910695985826</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-0.5195605117388366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.7434007119350131</v>
+        <v>-0.743400711935013</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.910364338336163</v>
+        <v>-1.655087436560925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.580770994894355</v>
+        <v>-1.576288660127552</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -826,18 +826,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.147451918282386</v>
+        <v>1.151875781134484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1597611983306798</v>
+        <v>0.1870970801797601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2272859498686071</v>
+        <v>-0.2319803951859849</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.06309961815506054</v>
+        <v>-0.0350236225594182</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>-0.2312339090536812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.3658932455003667</v>
+        <v>-0.3658932455003666</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.03957823698357035</v>
@@ -867,7 +867,7 @@
         <v>-0.2986187718899077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.393777204578388</v>
+        <v>-0.3937772045783879</v>
       </c>
     </row>
     <row r="14">
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3889914231490282</v>
+        <v>-0.4018472710362536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6213766491725738</v>
+        <v>-0.6376310205160072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7406679293907223</v>
+        <v>-0.7699139543459148</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4415983173425277</v>
+        <v>-0.4730117571039451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6270801361953225</v>
+        <v>-0.6420998307443094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6237676174584903</v>
+        <v>-0.6298633298815411</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +904,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4161112492849727</v>
+        <v>0.4315927042205727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1612687960624097</v>
+        <v>0.1330613964611962</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.03262005235702413</v>
+        <v>-0.02434612425089315</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9041572568345622</v>
+        <v>0.9391549380952577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3633647636955238</v>
+        <v>0.2551404248958464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.002895864825699523</v>
+        <v>-0.0155552874450513</v>
       </c>
     </row>
     <row r="16">
